--- a/02.Signals/validate_202401.xlsx
+++ b/02.Signals/validate_202401.xlsx
@@ -475,23 +475,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AccrualsBM_q</t>
+          <t>Recomm_ShortInterest_q</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1932</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="F2" t="n">
-        <v>1925</v>
+        <v>1915</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Recomm_ShortInterest_q</t>
+          <t>AccrualsBM_q</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,13 +510,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="F3" t="n">
-        <v>1915</v>
+        <v>1923</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,7 +550,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DelDRC_q</t>
+          <t>IO_ShortInterest_q</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -560,41 +560,41 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>1868</v>
+        <v>1920</v>
       </c>
       <c r="F5" t="n">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>1357</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>IO_ShortInterest_q</t>
+          <t>DelDRC_q</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1932</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="E6" t="n">
-        <v>1920</v>
+        <v>1823</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>540</v>
       </c>
       <c r="G6" t="n">
-        <v>1910</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="7">
@@ -607,116 +607,116 @@
         <v>1932</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E7" t="n">
-        <v>1827</v>
+        <v>1768</v>
       </c>
       <c r="F7" t="n">
         <v>319</v>
       </c>
       <c r="G7" t="n">
-        <v>1508</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Investment_q</t>
+          <t>MomTurnover</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1932</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>118</v>
+        <v>1919</v>
       </c>
       <c r="E8" t="n">
-        <v>1814</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
-        <v>319</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>1495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MomTurnover</t>
+          <t>tang_q</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>1932</v>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>1919</v>
+        <v>540</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>1392</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>1369</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>tang_q</t>
+          <t>MomRev</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1932</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
-        <v>539</v>
+        <v>1919</v>
       </c>
       <c r="E10" t="n">
-        <v>1393</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>1369</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MomRev</t>
+          <t>cash_q</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1932</v>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>1919</v>
+        <v>563</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>1369</v>
       </c>
       <c r="F11" t="n">
-        <v>13</v>
+        <v>1369</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -725,23 +725,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>cash_q</t>
+          <t>Mom_m02_m11_pos</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>563</v>
+        <v>1152</v>
       </c>
       <c r="E12" t="n">
-        <v>1369</v>
+        <v>780</v>
       </c>
       <c r="F12" t="n">
-        <v>1369</v>
+        <v>780</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -750,26 +750,26 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mom_m02_m11_pos</t>
+          <t>Investment_q</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>1932</v>
       </c>
       <c r="C13" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>1152</v>
+        <v>194</v>
       </c>
       <c r="E13" t="n">
-        <v>780</v>
+        <v>1738</v>
       </c>
       <c r="F13" t="n">
-        <v>780</v>
+        <v>319</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="14">
@@ -832,19 +832,19 @@
         <v>1932</v>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E16" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" t="n">
         <v>319</v>
       </c>
       <c r="G16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -950,51 +950,51 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>EntMult_q</t>
+          <t>OffSeason_1115</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1932</v>
       </c>
       <c r="C21" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" t="n">
-        <v>1070</v>
+        <v>1331</v>
       </c>
       <c r="E21" t="n">
-        <v>862</v>
+        <v>601</v>
       </c>
       <c r="F21" t="n">
-        <v>319</v>
+        <v>13</v>
       </c>
       <c r="G21" t="n">
-        <v>543</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>OffSeason_1115</t>
+          <t>EntMult_q</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1932</v>
       </c>
       <c r="C22" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D22" t="n">
-        <v>1331</v>
+        <v>1073</v>
       </c>
       <c r="E22" t="n">
-        <v>601</v>
+        <v>859</v>
       </c>
       <c r="F22" t="n">
-        <v>13</v>
+        <v>319</v>
       </c>
       <c r="G22" t="n">
-        <v>588</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23">
@@ -1007,7 +1007,7 @@
         <v>1932</v>
       </c>
       <c r="C23" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" t="n">
         <v>959</v>
@@ -1200,51 +1200,51 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CBOperProfLagAT_alt_q</t>
+          <t>ShortInterest_q</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>1932</v>
       </c>
       <c r="C31" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D31" t="n">
-        <v>1470</v>
+        <v>1921</v>
       </c>
       <c r="E31" t="n">
-        <v>462</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
-        <v>319</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ShortInterest_q</t>
+          <t>CBOperProfLagAT_alt_q</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1932</v>
       </c>
       <c r="C32" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D32" t="n">
-        <v>1921</v>
+        <v>1471</v>
       </c>
       <c r="E32" t="n">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
@@ -1257,7 +1257,7 @@
         <v>1932</v>
       </c>
       <c r="C33" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D33" t="n">
         <v>1546</v>
@@ -1307,19 +1307,19 @@
         <v>1932</v>
       </c>
       <c r="C35" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D35" t="n">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E35" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F35" t="n">
         <v>319</v>
       </c>
       <c r="G35" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36">
@@ -1332,69 +1332,69 @@
         <v>1932</v>
       </c>
       <c r="C36" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D36" t="n">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E36" t="n">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F36" t="n">
         <v>319</v>
       </c>
       <c r="G36" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>MomResiduals12m</t>
+          <t>MomResiduals6m</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1932</v>
       </c>
       <c r="C37" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D37" t="n">
-        <v>1648</v>
+        <v>1673</v>
       </c>
       <c r="E37" t="n">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="F37" t="n">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G37" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MomResiduals6m</t>
+          <t>MomResiduals12m</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1932</v>
       </c>
       <c r="C38" t="n">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D38" t="n">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="E38" t="n">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F38" t="n">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G38" t="n">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39">
@@ -1407,7 +1407,7 @@
         <v>1932</v>
       </c>
       <c r="C39" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D39" t="n">
         <v>1606</v>
@@ -2248,7 +2248,7 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -2308,19 +2308,19 @@
         <v>745</v>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" t="n">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F29" t="n">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H29" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
@@ -2338,19 +2338,19 @@
         <v>1150</v>
       </c>
       <c r="D30" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1032</v>
+      </c>
+      <c r="F30" t="n">
         <v>118</v>
       </c>
-      <c r="E30" t="n">
-        <v>1026</v>
-      </c>
-      <c r="F30" t="n">
-        <v>124</v>
-      </c>
       <c r="G30" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H30" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -2368,7 +2368,7 @@
         <v>28</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
@@ -2428,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
@@ -2458,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -2488,19 +2488,19 @@
         <v>745</v>
       </c>
       <c r="D35" t="n">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E35" t="n">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F35" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H35" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -2518,19 +2518,19 @@
         <v>1150</v>
       </c>
       <c r="D36" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E36" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="F36" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -2548,19 +2548,19 @@
         <v>28</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -5218,19 +5218,19 @@
         <v>1150</v>
       </c>
       <c r="D126" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E126" t="n">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F126" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G126" t="n">
         <v>192</v>
       </c>
       <c r="H126" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -5548,16 +5548,16 @@
         <v>745</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G137" t="n">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5581,13 +5581,13 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F138" t="n">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G138" t="n">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5731,16 +5731,16 @@
         <v>44</v>
       </c>
       <c r="E143" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F143" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G143" t="n">
         <v>120</v>
       </c>
       <c r="H143" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="144">
@@ -5758,19 +5758,19 @@
         <v>1150</v>
       </c>
       <c r="D144" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E144" t="n">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F144" t="n">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G144" t="n">
         <v>192</v>
       </c>
       <c r="H144" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145">
@@ -5938,7 +5938,7 @@
         <v>1150</v>
       </c>
       <c r="D150" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E150" t="n">
         <v>954</v>
@@ -6088,7 +6088,7 @@
         <v>745</v>
       </c>
       <c r="D155" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E155" t="n">
         <v>622</v>
@@ -6118,7 +6118,7 @@
         <v>1150</v>
       </c>
       <c r="D156" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E156" t="n">
         <v>954</v>
@@ -6268,7 +6268,7 @@
         <v>745</v>
       </c>
       <c r="D161" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E161" t="n">
         <v>577</v>
@@ -6298,7 +6298,7 @@
         <v>1150</v>
       </c>
       <c r="D162" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E162" t="n">
         <v>942</v>
@@ -6448,7 +6448,7 @@
         <v>745</v>
       </c>
       <c r="D167" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E167" t="n">
         <v>561</v>
@@ -6478,19 +6478,19 @@
         <v>1150</v>
       </c>
       <c r="D168" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E168" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F168" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G168" t="n">
         <v>192</v>
       </c>
       <c r="H168" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169">
@@ -6658,19 +6658,19 @@
         <v>1150</v>
       </c>
       <c r="D174" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E174" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F174" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G174" t="n">
         <v>192</v>
       </c>
       <c r="H174" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175">
@@ -6808,7 +6808,7 @@
         <v>745</v>
       </c>
       <c r="D179" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E179" t="n">
         <v>561</v>
@@ -6838,19 +6838,19 @@
         <v>1150</v>
       </c>
       <c r="D180" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E180" t="n">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F180" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G180" t="n">
         <v>192</v>
       </c>
       <c r="H180" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181">
@@ -6988,19 +6988,19 @@
         <v>745</v>
       </c>
       <c r="D185" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E185" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F185" t="n">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="G185" t="n">
         <v>120</v>
       </c>
       <c r="H185" t="n">
-        <v>588</v>
+        <v>561</v>
       </c>
     </row>
     <row r="186">
@@ -7018,19 +7018,19 @@
         <v>1150</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E186" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="F186" t="n">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="G186" t="n">
         <v>192</v>
       </c>
       <c r="H186" t="n">
-        <v>891</v>
+        <v>859</v>
       </c>
     </row>
     <row r="187">
@@ -7168,19 +7168,19 @@
         <v>745</v>
       </c>
       <c r="D191" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E191" t="n">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="F191" t="n">
-        <v>698</v>
+        <v>659</v>
       </c>
       <c r="G191" t="n">
         <v>120</v>
       </c>
       <c r="H191" t="n">
-        <v>578</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192">
@@ -7198,19 +7198,19 @@
         <v>1150</v>
       </c>
       <c r="D192" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E192" t="n">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F192" t="n">
-        <v>1080</v>
+        <v>1043</v>
       </c>
       <c r="G192" t="n">
         <v>192</v>
       </c>
       <c r="H192" t="n">
-        <v>888</v>
+        <v>851</v>
       </c>
     </row>
     <row r="193">
@@ -7348,19 +7348,19 @@
         <v>745</v>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E197" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F197" t="n">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="G197" t="n">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H197" t="n">
-        <v>506</v>
+        <v>467</v>
       </c>
     </row>
     <row r="198">
@@ -7378,19 +7378,19 @@
         <v>1150</v>
       </c>
       <c r="D198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F198" t="n">
-        <v>1115</v>
+        <v>1098</v>
       </c>
       <c r="G198" t="n">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="H198" t="n">
-        <v>826</v>
+        <v>791</v>
       </c>
     </row>
     <row r="199">
@@ -7528,7 +7528,7 @@
         <v>745</v>
       </c>
       <c r="D203" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E203" t="n">
         <v>175</v>
@@ -7741,16 +7741,16 @@
         <v>15</v>
       </c>
       <c r="E210" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F210" t="n">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G210" t="n">
         <v>770</v>
       </c>
       <c r="H210" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="211">
@@ -9848,10 +9848,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -9869,7 +9869,7 @@
         <v>93</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
         <v>76</v>
@@ -9878,10 +9878,10 @@
         <v>17</v>
       </c>
       <c r="G51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -9908,10 +9908,10 @@
         <v>31</v>
       </c>
       <c r="G52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -9929,19 +9929,19 @@
         <v>97</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -9959,7 +9959,7 @@
         <v>83</v>
       </c>
       <c r="D54" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E54" t="n">
         <v>71</v>
@@ -9968,10 +9968,10 @@
         <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -9989,19 +9989,19 @@
         <v>310</v>
       </c>
       <c r="D55" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E55" t="n">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F55" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G55" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -10019,19 +10019,19 @@
         <v>259</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E56" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F56" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G56" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H56" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
@@ -10049,19 +10049,19 @@
         <v>324</v>
       </c>
       <c r="D57" t="n">
+        <v>33</v>
+      </c>
+      <c r="E57" t="n">
+        <v>287</v>
+      </c>
+      <c r="F57" t="n">
         <v>37</v>
       </c>
-      <c r="E57" t="n">
-        <v>286</v>
-      </c>
-      <c r="F57" t="n">
-        <v>38</v>
-      </c>
       <c r="G57" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -10079,7 +10079,7 @@
         <v>257</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E58" t="n">
         <v>197</v>
@@ -10088,10 +10088,10 @@
         <v>60</v>
       </c>
       <c r="G58" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -10109,19 +10109,19 @@
         <v>91</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -10139,19 +10139,19 @@
         <v>130</v>
       </c>
       <c r="D60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E60" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -10169,7 +10169,7 @@
         <v>57</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
         <v>56</v>
@@ -10208,10 +10208,10 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -10229,7 +10229,7 @@
         <v>93</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
         <v>74</v>
@@ -10238,10 +10238,10 @@
         <v>19</v>
       </c>
       <c r="G63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -10259,7 +10259,7 @@
         <v>230</v>
       </c>
       <c r="D64" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E64" t="n">
         <v>198</v>
@@ -10268,10 +10268,10 @@
         <v>32</v>
       </c>
       <c r="G64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H64" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -10289,19 +10289,19 @@
         <v>97</v>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E65" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
         <v>8</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -10319,7 +10319,7 @@
         <v>83</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
         <v>71</v>
@@ -10328,10 +10328,10 @@
         <v>12</v>
       </c>
       <c r="G66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -10349,7 +10349,7 @@
         <v>310</v>
       </c>
       <c r="D67" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E67" t="n">
         <v>273</v>
@@ -10358,10 +10358,10 @@
         <v>37</v>
       </c>
       <c r="G67" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -10379,7 +10379,7 @@
         <v>259</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
         <v>203</v>
@@ -10388,10 +10388,10 @@
         <v>56</v>
       </c>
       <c r="G68" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H68" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69">
@@ -10409,19 +10409,19 @@
         <v>324</v>
       </c>
       <c r="D69" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E69" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F69" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H69" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -10439,19 +10439,19 @@
         <v>257</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E70" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F70" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G70" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H70" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
@@ -10469,7 +10469,7 @@
         <v>91</v>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E71" t="n">
         <v>85</v>
@@ -10499,7 +10499,7 @@
         <v>130</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
         <v>126</v>
@@ -15869,19 +15869,19 @@
         <v>91</v>
       </c>
       <c r="D251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -16559,16 +16559,16 @@
         <v>257</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F274" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G274" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16739,19 +16739,19 @@
         <v>230</v>
       </c>
       <c r="D280" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E280" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F280" t="n">
+        <v>80</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
         <v>79</v>
-      </c>
-      <c r="G280" t="n">
-        <v>1</v>
-      </c>
-      <c r="H280" t="n">
-        <v>78</v>
       </c>
     </row>
     <row r="281">
@@ -16772,16 +16772,16 @@
         <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F281" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
       </c>
       <c r="H281" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282">
@@ -16889,7 +16889,7 @@
         <v>324</v>
       </c>
       <c r="D285" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E285" t="n">
         <v>254</v>
@@ -16922,16 +16922,16 @@
         <v>36</v>
       </c>
       <c r="E286" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F286" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
       </c>
       <c r="H286" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="287">
@@ -16952,16 +16952,16 @@
         <v>1</v>
       </c>
       <c r="E287" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F287" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G287" t="n">
         <v>0</v>
       </c>
       <c r="H287" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288">
@@ -17069,7 +17069,7 @@
         <v>93</v>
       </c>
       <c r="D291" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E291" t="n">
         <v>38</v>
@@ -17099,7 +17099,7 @@
         <v>230</v>
       </c>
       <c r="D292" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E292" t="n">
         <v>147</v>
@@ -17159,7 +17159,7 @@
         <v>83</v>
       </c>
       <c r="D294" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E294" t="n">
         <v>70</v>
@@ -17309,7 +17309,7 @@
         <v>91</v>
       </c>
       <c r="D299" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E299" t="n">
         <v>80</v>
@@ -17369,7 +17369,7 @@
         <v>57</v>
       </c>
       <c r="D301" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E301" t="n">
         <v>48</v>
@@ -17429,7 +17429,7 @@
         <v>93</v>
       </c>
       <c r="D303" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E303" t="n">
         <v>91</v>
@@ -17459,7 +17459,7 @@
         <v>230</v>
       </c>
       <c r="D304" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E304" t="n">
         <v>228</v>
@@ -17489,7 +17489,7 @@
         <v>97</v>
       </c>
       <c r="D305" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E305" t="n">
         <v>95</v>
@@ -17519,7 +17519,7 @@
         <v>83</v>
       </c>
       <c r="D306" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E306" t="n">
         <v>82</v>
@@ -17579,7 +17579,7 @@
         <v>259</v>
       </c>
       <c r="D308" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E308" t="n">
         <v>254</v>
@@ -17609,7 +17609,7 @@
         <v>324</v>
       </c>
       <c r="D309" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E309" t="n">
         <v>322</v>
@@ -17639,7 +17639,7 @@
         <v>257</v>
       </c>
       <c r="D310" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E310" t="n">
         <v>255</v>
@@ -17669,7 +17669,7 @@
         <v>91</v>
       </c>
       <c r="D311" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E311" t="n">
         <v>91</v>
@@ -17729,7 +17729,7 @@
         <v>57</v>
       </c>
       <c r="D313" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E313" t="n">
         <v>57</v>
@@ -17789,7 +17789,7 @@
         <v>93</v>
       </c>
       <c r="D315" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E315" t="n">
         <v>85</v>
@@ -17822,16 +17822,16 @@
         <v>41</v>
       </c>
       <c r="E316" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F316" t="n">
+        <v>5</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1</v>
+      </c>
+      <c r="H316" t="n">
         <v>4</v>
-      </c>
-      <c r="G316" t="n">
-        <v>1</v>
-      </c>
-      <c r="H316" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -17849,7 +17849,7 @@
         <v>97</v>
       </c>
       <c r="D317" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E317" t="n">
         <v>96</v>
@@ -17939,7 +17939,7 @@
         <v>259</v>
       </c>
       <c r="D320" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E320" t="n">
         <v>214</v>
@@ -17999,7 +17999,7 @@
         <v>257</v>
       </c>
       <c r="D322" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E322" t="n">
         <v>253</v>
@@ -18092,16 +18092,16 @@
         <v>0</v>
       </c>
       <c r="E325" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G325" t="n">
         <v>0</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -18179,19 +18179,19 @@
         <v>230</v>
       </c>
       <c r="D328" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E328" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F328" t="n">
+        <v>10</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1</v>
+      </c>
+      <c r="H328" t="n">
         <v>9</v>
-      </c>
-      <c r="G328" t="n">
-        <v>1</v>
-      </c>
-      <c r="H328" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="329">
@@ -18329,19 +18329,19 @@
         <v>324</v>
       </c>
       <c r="D333" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E333" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F333" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G333" t="n">
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="334">
@@ -18359,7 +18359,7 @@
         <v>257</v>
       </c>
       <c r="D334" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E334" t="n">
         <v>253</v>
@@ -18452,16 +18452,16 @@
         <v>0</v>
       </c>
       <c r="E337" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F337" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G337" t="n">
         <v>0</v>
       </c>
       <c r="H337" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="338">
@@ -18539,19 +18539,19 @@
         <v>230</v>
       </c>
       <c r="D340" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E340" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F340" t="n">
+        <v>10</v>
+      </c>
+      <c r="G340" t="n">
+        <v>1</v>
+      </c>
+      <c r="H340" t="n">
         <v>9</v>
-      </c>
-      <c r="G340" t="n">
-        <v>1</v>
-      </c>
-      <c r="H340" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="341">
@@ -18692,16 +18692,16 @@
         <v>14</v>
       </c>
       <c r="E345" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F345" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G345" t="n">
         <v>0</v>
       </c>
       <c r="H345" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="346">
@@ -18719,7 +18719,7 @@
         <v>257</v>
       </c>
       <c r="D346" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E346" t="n">
         <v>253</v>
@@ -18812,16 +18812,16 @@
         <v>0</v>
       </c>
       <c r="E349" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F349" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G349" t="n">
         <v>0</v>
       </c>
       <c r="H349" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="350">
@@ -18869,7 +18869,7 @@
         <v>93</v>
       </c>
       <c r="D351" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E351" t="n">
         <v>84</v>
@@ -18899,19 +18899,19 @@
         <v>230</v>
       </c>
       <c r="D352" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E352" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F352" t="n">
+        <v>10</v>
+      </c>
+      <c r="G352" t="n">
+        <v>1</v>
+      </c>
+      <c r="H352" t="n">
         <v>9</v>
-      </c>
-      <c r="G352" t="n">
-        <v>1</v>
-      </c>
-      <c r="H352" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="353">
@@ -19049,19 +19049,19 @@
         <v>324</v>
       </c>
       <c r="D357" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E357" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F357" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G357" t="n">
         <v>0</v>
       </c>
       <c r="H357" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="358">
@@ -19172,16 +19172,16 @@
         <v>0</v>
       </c>
       <c r="E361" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F361" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
       </c>
       <c r="H361" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="362">
@@ -19232,16 +19232,16 @@
         <v>0</v>
       </c>
       <c r="E363" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F363" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
       </c>
       <c r="H363" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="364">
@@ -19259,19 +19259,19 @@
         <v>230</v>
       </c>
       <c r="D364" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E364" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F364" t="n">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
       </c>
       <c r="H364" t="n">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="365">
@@ -19292,16 +19292,16 @@
         <v>1</v>
       </c>
       <c r="E365" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F365" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
       </c>
       <c r="H365" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="366">
@@ -19322,16 +19322,16 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F366" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
       </c>
       <c r="H366" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="367">
@@ -19382,16 +19382,16 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F368" t="n">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G368" t="n">
         <v>4</v>
       </c>
       <c r="H368" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="369">
@@ -19412,16 +19412,16 @@
         <v>0</v>
       </c>
       <c r="E369" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F369" t="n">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G369" t="n">
         <v>0</v>
       </c>
       <c r="H369" t="n">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="370">
@@ -19439,19 +19439,19 @@
         <v>257</v>
       </c>
       <c r="D370" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E370" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F370" t="n">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
       </c>
       <c r="H370" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="371">
@@ -19472,16 +19472,16 @@
         <v>0</v>
       </c>
       <c r="E371" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F371" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G371" t="n">
         <v>0</v>
       </c>
       <c r="H371" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="372">
@@ -19532,16 +19532,16 @@
         <v>0</v>
       </c>
       <c r="E373" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F373" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G373" t="n">
         <v>0</v>
       </c>
       <c r="H373" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="374">
@@ -19589,19 +19589,19 @@
         <v>93</v>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E375" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F375" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G375" t="n">
         <v>0</v>
       </c>
       <c r="H375" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="376">
@@ -19619,19 +19619,19 @@
         <v>230</v>
       </c>
       <c r="D376" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E376" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F376" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
       </c>
       <c r="H376" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="377">
@@ -19649,19 +19649,19 @@
         <v>97</v>
       </c>
       <c r="D377" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E377" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F377" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
       </c>
       <c r="H377" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="378">
@@ -19682,16 +19682,16 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F378" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
       </c>
       <c r="H378" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="379">
@@ -19739,19 +19739,19 @@
         <v>259</v>
       </c>
       <c r="D380" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E380" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F380" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G380" t="n">
         <v>4</v>
       </c>
       <c r="H380" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="381">
@@ -19769,19 +19769,19 @@
         <v>324</v>
       </c>
       <c r="D381" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E381" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F381" t="n">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="G381" t="n">
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="382">
@@ -19799,19 +19799,19 @@
         <v>257</v>
       </c>
       <c r="D382" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E382" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F382" t="n">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
       </c>
       <c r="H382" t="n">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="383">
@@ -19832,16 +19832,16 @@
         <v>3</v>
       </c>
       <c r="E383" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F383" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="384">
@@ -19889,19 +19889,19 @@
         <v>57</v>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E385" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F385" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G385" t="n">
         <v>0</v>
       </c>
       <c r="H385" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="386">
@@ -19952,16 +19952,16 @@
         <v>0</v>
       </c>
       <c r="E387" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G387" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H387" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="388">
@@ -19979,19 +19979,19 @@
         <v>230</v>
       </c>
       <c r="D388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F388" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G388" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H388" t="n">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="389">
@@ -20012,16 +20012,16 @@
         <v>0</v>
       </c>
       <c r="E389" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F389" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G389" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H389" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="390">
@@ -20039,19 +20039,19 @@
         <v>83</v>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F390" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G390" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H390" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="391">
@@ -20102,16 +20102,16 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F392" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G392" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H392" t="n">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="393">
@@ -20132,16 +20132,16 @@
         <v>1</v>
       </c>
       <c r="E393" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F393" t="n">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G393" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H393" t="n">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="394">
@@ -20159,19 +20159,19 @@
         <v>257</v>
       </c>
       <c r="D394" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E394" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F394" t="n">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G394" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H394" t="n">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="395">
@@ -20198,10 +20198,10 @@
         <v>90</v>
       </c>
       <c r="G395" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H395" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="396">
@@ -20228,10 +20228,10 @@
         <v>128</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H396" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="397">
@@ -20252,16 +20252,16 @@
         <v>0</v>
       </c>
       <c r="E397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F397" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H397" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="398">
@@ -20489,7 +20489,7 @@
         <v>324</v>
       </c>
       <c r="D405" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E405" t="n">
         <v>199</v>
@@ -20699,19 +20699,19 @@
         <v>230</v>
       </c>
       <c r="D412" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E412" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F412" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G412" t="n">
         <v>143</v>
       </c>
       <c r="H412" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="413">
@@ -20849,7 +20849,7 @@
         <v>324</v>
       </c>
       <c r="D417" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E417" t="n">
         <v>187</v>
@@ -22323,13 +22323,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G8" t="n">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -22350,16 +22350,16 @@
         <v>837</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G9" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -22590,19 +22590,19 @@
         <v>837</v>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F17" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G17" t="n">
         <v>199</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -22650,7 +22650,7 @@
         <v>341</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
         <v>228</v>
@@ -22710,7 +22710,7 @@
         <v>142</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>90</v>
@@ -22740,7 +22740,7 @@
         <v>157</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>139</v>
@@ -22770,7 +22770,7 @@
         <v>194</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>130</v>
@@ -22800,7 +22800,7 @@
         <v>640</v>
       </c>
       <c r="D24" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
         <v>551</v>
@@ -22830,19 +22830,19 @@
         <v>837</v>
       </c>
       <c r="D25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E25" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F25" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G25" t="n">
         <v>199</v>
       </c>
       <c r="H25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -23040,7 +23040,7 @@
         <v>640</v>
       </c>
       <c r="D32" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" t="n">
         <v>551</v>
@@ -23073,16 +23073,16 @@
         <v>29</v>
       </c>
       <c r="E33" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F33" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" t="n">
         <v>199</v>
       </c>
       <c r="H33" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
@@ -23280,7 +23280,7 @@
         <v>640</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
         <v>257</v>
@@ -23310,7 +23310,7 @@
         <v>837</v>
       </c>
       <c r="D41" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E41" t="n">
         <v>450</v>
@@ -23343,16 +23343,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G42" t="n">
         <v>21</v>
       </c>
       <c r="H42" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43">
@@ -23373,16 +23373,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F43" t="n">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="G43" t="n">
         <v>66</v>
       </c>
       <c r="H43" t="n">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44">
@@ -23403,16 +23403,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F44" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G44" t="n">
         <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
@@ -23433,16 +23433,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G45" t="n">
         <v>31</v>
       </c>
       <c r="H45" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46">
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G46" t="n">
         <v>14</v>
       </c>
       <c r="H46" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -23493,16 +23493,16 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F47" t="n">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G47" t="n">
         <v>37</v>
       </c>
       <c r="H47" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
@@ -23520,19 +23520,19 @@
         <v>640</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F48" t="n">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="G48" t="n">
         <v>46</v>
       </c>
       <c r="H48" t="n">
-        <v>576</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49">
@@ -23550,19 +23550,19 @@
         <v>837</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F49" t="n">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="G49" t="n">
         <v>199</v>
       </c>
       <c r="H49" t="n">
-        <v>599</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50">
@@ -23580,19 +23580,19 @@
         <v>220</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F50" t="n">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G50" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H50" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51">
@@ -23613,16 +23613,16 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H51" t="n">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52">
@@ -23640,19 +23640,19 @@
         <v>88</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F52" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G52" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H52" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53">
@@ -23673,16 +23673,16 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F53" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G53" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H53" t="n">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -23700,19 +23700,19 @@
         <v>157</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G54" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H54" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
@@ -23733,16 +23733,16 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F55" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G55" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H55" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
@@ -23760,19 +23760,19 @@
         <v>640</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F56" t="n">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="G56" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H56" t="n">
-        <v>503</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57">
@@ -23790,19 +23790,19 @@
         <v>837</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F57" t="n">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="G57" t="n">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="H57" t="n">
-        <v>552</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58">
@@ -24060,19 +24060,19 @@
         <v>220</v>
       </c>
       <c r="D66" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E66" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F66" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G66" t="n">
         <v>21</v>
       </c>
       <c r="H66" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67">
@@ -24090,19 +24090,19 @@
         <v>341</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F67" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G67" t="n">
         <v>66</v>
       </c>
       <c r="H67" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
@@ -24180,19 +24180,19 @@
         <v>157</v>
       </c>
       <c r="D70" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F70" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G70" t="n">
         <v>14</v>
       </c>
       <c r="H70" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
@@ -24210,19 +24210,19 @@
         <v>194</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F71" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" t="n">
         <v>37</v>
       </c>
       <c r="H71" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72">
@@ -24240,19 +24240,19 @@
         <v>640</v>
       </c>
       <c r="D72" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E72" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F72" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G72" t="n">
         <v>46</v>
       </c>
       <c r="H72" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73">
@@ -24300,7 +24300,7 @@
         <v>220</v>
       </c>
       <c r="D74" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E74" t="n">
         <v>196</v>
@@ -24330,7 +24330,7 @@
         <v>341</v>
       </c>
       <c r="D75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
         <v>266</v>
@@ -24360,7 +24360,7 @@
         <v>88</v>
       </c>
       <c r="D76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="n">
         <v>78</v>
@@ -24450,7 +24450,7 @@
         <v>194</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
         <v>152</v>
@@ -24480,7 +24480,7 @@
         <v>640</v>
       </c>
       <c r="D80" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E80" t="n">
         <v>555</v>
@@ -24510,7 +24510,7 @@
         <v>837</v>
       </c>
       <c r="D81" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E81" t="n">
         <v>618</v>
@@ -24780,19 +24780,19 @@
         <v>220</v>
       </c>
       <c r="D90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F90" t="n">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G90" t="n">
         <v>21</v>
       </c>
       <c r="H90" t="n">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91">
@@ -24810,19 +24810,19 @@
         <v>341</v>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F91" t="n">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="G91" t="n">
         <v>66</v>
       </c>
       <c r="H91" t="n">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92">
@@ -24840,19 +24840,19 @@
         <v>88</v>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F92" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G92" t="n">
         <v>9</v>
       </c>
       <c r="H92" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93">
@@ -24870,19 +24870,19 @@
         <v>142</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F93" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G93" t="n">
         <v>31</v>
       </c>
       <c r="H93" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94">
@@ -24900,19 +24900,19 @@
         <v>157</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" t="n">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G94" t="n">
         <v>14</v>
       </c>
       <c r="H94" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95">
@@ -24930,19 +24930,19 @@
         <v>194</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F95" t="n">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G95" t="n">
         <v>37</v>
       </c>
       <c r="H95" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96">
@@ -24960,19 +24960,19 @@
         <v>640</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F96" t="n">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="G96" t="n">
         <v>46</v>
       </c>
       <c r="H96" t="n">
-        <v>574</v>
+        <v>547</v>
       </c>
     </row>
     <row r="97">
@@ -24990,19 +24990,19 @@
         <v>837</v>
       </c>
       <c r="D97" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F97" t="n">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="G97" t="n">
         <v>199</v>
       </c>
       <c r="H97" t="n">
-        <v>594</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98">
@@ -25983,16 +25983,16 @@
         <v>20</v>
       </c>
       <c r="E130" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F130" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G130" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131">
@@ -26010,7 +26010,7 @@
         <v>341</v>
       </c>
       <c r="D131" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E131" t="n">
         <v>326</v>
@@ -26040,7 +26040,7 @@
         <v>88</v>
       </c>
       <c r="D132" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E132" t="n">
         <v>85</v>
@@ -26049,10 +26049,10 @@
         <v>3</v>
       </c>
       <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
         <v>2</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -26070,7 +26070,7 @@
         <v>142</v>
       </c>
       <c r="D133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E133" t="n">
         <v>139</v>
@@ -26103,13 +26103,13 @@
         <v>9</v>
       </c>
       <c r="E134" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F134" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G134" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H134" t="n">
         <v>6</v>
@@ -26130,7 +26130,7 @@
         <v>194</v>
       </c>
       <c r="D135" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E135" t="n">
         <v>182</v>
@@ -26163,16 +26163,16 @@
         <v>51</v>
       </c>
       <c r="E136" t="n">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F136" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G136" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H136" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137">
@@ -26190,19 +26190,19 @@
         <v>837</v>
       </c>
       <c r="D137" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E137" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F137" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G137" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H137" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138">
@@ -26220,7 +26220,7 @@
         <v>220</v>
       </c>
       <c r="D138" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E138" t="n">
         <v>207</v>
@@ -26229,10 +26229,10 @@
         <v>13</v>
       </c>
       <c r="G138" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H138" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139">
@@ -26250,19 +26250,19 @@
         <v>341</v>
       </c>
       <c r="D139" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E139" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F139" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G139" t="n">
         <v>9</v>
       </c>
       <c r="H139" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -26280,7 +26280,7 @@
         <v>88</v>
       </c>
       <c r="D140" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E140" t="n">
         <v>85</v>
@@ -26289,10 +26289,10 @@
         <v>3</v>
       </c>
       <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
         <v>2</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -26310,7 +26310,7 @@
         <v>142</v>
       </c>
       <c r="D141" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E141" t="n">
         <v>140</v>
@@ -26340,7 +26340,7 @@
         <v>157</v>
       </c>
       <c r="D142" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E142" t="n">
         <v>145</v>
@@ -26349,10 +26349,10 @@
         <v>12</v>
       </c>
       <c r="G142" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H142" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143">
@@ -26370,19 +26370,19 @@
         <v>194</v>
       </c>
       <c r="D143" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E143" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F143" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
       </c>
       <c r="H143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -26400,19 +26400,19 @@
         <v>640</v>
       </c>
       <c r="D144" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E144" t="n">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F144" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G144" t="n">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H144" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="145">
@@ -26430,19 +26430,19 @@
         <v>837</v>
       </c>
       <c r="D145" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E145" t="n">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F145" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G145" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H145" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
@@ -28620,7 +28620,7 @@
         <v>220</v>
       </c>
       <c r="D218" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E218" t="n">
         <v>194</v>
@@ -28740,7 +28740,7 @@
         <v>157</v>
       </c>
       <c r="D222" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E222" t="n">
         <v>139</v>
@@ -28800,7 +28800,7 @@
         <v>640</v>
       </c>
       <c r="D224" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E224" t="n">
         <v>551</v>
@@ -28830,19 +28830,19 @@
         <v>837</v>
       </c>
       <c r="D225" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E225" t="n">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F225" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G225" t="n">
         <v>199</v>
       </c>
       <c r="H225" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="226">
@@ -30720,7 +30720,7 @@
         <v>640</v>
       </c>
       <c r="D288" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E288" t="n">
         <v>182</v>
@@ -30780,7 +30780,7 @@
         <v>220</v>
       </c>
       <c r="D290" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E290" t="n">
         <v>198</v>
@@ -30810,7 +30810,7 @@
         <v>341</v>
       </c>
       <c r="D291" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E291" t="n">
         <v>273</v>
@@ -30870,7 +30870,7 @@
         <v>142</v>
       </c>
       <c r="D293" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E293" t="n">
         <v>111</v>
@@ -30900,7 +30900,7 @@
         <v>157</v>
       </c>
       <c r="D294" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E294" t="n">
         <v>142</v>
@@ -30930,7 +30930,7 @@
         <v>194</v>
       </c>
       <c r="D295" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E295" t="n">
         <v>156</v>
@@ -30990,7 +30990,7 @@
         <v>837</v>
       </c>
       <c r="D297" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E297" t="n">
         <v>634</v>
@@ -31053,16 +31053,16 @@
         <v>8</v>
       </c>
       <c r="E299" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F299" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G299" t="n">
         <v>227</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -31173,16 +31173,16 @@
         <v>5</v>
       </c>
       <c r="E303" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F303" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G303" t="n">
         <v>132</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -31200,7 +31200,7 @@
         <v>640</v>
       </c>
       <c r="D304" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E304" t="n">
         <v>171</v>
@@ -31230,7 +31230,7 @@
         <v>837</v>
       </c>
       <c r="D305" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E305" t="n">
         <v>238</v>
@@ -31374,7 +31374,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DelDRC_q</t>
+          <t>Recomm_ShortInterest_q</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -31384,41 +31384,41 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E5" t="n">
-        <v>1797</v>
+        <v>1772</v>
       </c>
       <c r="F5" t="n">
-        <v>937</v>
+        <v>1772</v>
       </c>
       <c r="G5" t="n">
-        <v>860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Recomm_ShortInterest_q</t>
+          <t>DelDRC_q</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1816</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>1772</v>
+        <v>1786</v>
       </c>
       <c r="F6" t="n">
-        <v>1772</v>
+        <v>945</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>841</v>
       </c>
     </row>
     <row r="7">
@@ -31431,19 +31431,19 @@
         <v>1816</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>1783</v>
+        <v>1764</v>
       </c>
       <c r="F7" t="n">
         <v>363</v>
       </c>
       <c r="G7" t="n">
-        <v>1420</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="8">
@@ -31456,19 +31456,19 @@
         <v>1816</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E8" t="n">
-        <v>1786</v>
+        <v>1767</v>
       </c>
       <c r="F8" t="n">
         <v>363</v>
       </c>
       <c r="G8" t="n">
-        <v>1423</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="9">
@@ -31524,32 +31524,32 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CF_q</t>
+          <t>Mom_m02_m11</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1816</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="E11" t="n">
-        <v>1464</v>
+        <v>1404</v>
       </c>
       <c r="F11" t="n">
-        <v>363</v>
+        <v>1403</v>
       </c>
       <c r="G11" t="n">
-        <v>1101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mom_m02_m11</t>
+          <t>CF_q</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -31559,16 +31559,16 @@
         <v>53</v>
       </c>
       <c r="D12" t="n">
-        <v>412</v>
+        <v>352</v>
       </c>
       <c r="E12" t="n">
-        <v>1404</v>
+        <v>1464</v>
       </c>
       <c r="F12" t="n">
-        <v>1403</v>
+        <v>363</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13">
@@ -31599,32 +31599,32 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>tang_q</t>
+          <t>cash_q</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1816</v>
       </c>
       <c r="C14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="n">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="E14" t="n">
-        <v>1445</v>
+        <v>1412</v>
       </c>
       <c r="F14" t="n">
         <v>1409</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>cash_q</t>
+          <t>tang_q</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -31634,16 +31634,16 @@
         <v>64</v>
       </c>
       <c r="D15" t="n">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="E15" t="n">
-        <v>1411</v>
+        <v>1446</v>
       </c>
       <c r="F15" t="n">
         <v>1409</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
@@ -31656,19 +31656,19 @@
         <v>1816</v>
       </c>
       <c r="C16" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E16" t="n">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F16" t="n">
         <v>363</v>
       </c>
       <c r="G16" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17">
@@ -31799,151 +31799,151 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MomResiduals6m</t>
+          <t>OffSeason_1620</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1816</v>
       </c>
       <c r="C22" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D22" t="n">
-        <v>1379</v>
+        <v>777</v>
       </c>
       <c r="E22" t="n">
-        <v>437</v>
+        <v>1039</v>
       </c>
       <c r="F22" t="n">
-        <v>342</v>
+        <v>49</v>
       </c>
       <c r="G22" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>OffSeason_1620</t>
+          <t>CBOperProfLagAT_alt_q</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1816</v>
       </c>
       <c r="C23" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D23" t="n">
-        <v>777</v>
+        <v>1113</v>
       </c>
       <c r="E23" t="n">
-        <v>1039</v>
+        <v>703</v>
       </c>
       <c r="F23" t="n">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="G23" t="n">
-        <v>990</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>MomResiduals12m</t>
+          <t>Season_1115</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1816</v>
       </c>
       <c r="C24" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D24" t="n">
-        <v>1353</v>
+        <v>889</v>
       </c>
       <c r="E24" t="n">
-        <v>463</v>
+        <v>927</v>
       </c>
       <c r="F24" t="n">
-        <v>342</v>
+        <v>49</v>
       </c>
       <c r="G24" t="n">
-        <v>121</v>
+        <v>878</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Season_1115</t>
+          <t>MomResiduals12m</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>1816</v>
       </c>
       <c r="C25" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D25" t="n">
-        <v>889</v>
+        <v>1365</v>
       </c>
       <c r="E25" t="n">
-        <v>927</v>
+        <v>451</v>
       </c>
       <c r="F25" t="n">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="G25" t="n">
-        <v>878</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CBOperProfLagAT_alt_q</t>
+          <t>GPlag_q</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1816</v>
       </c>
       <c r="C26" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D26" t="n">
-        <v>1113</v>
+        <v>1140</v>
       </c>
       <c r="E26" t="n">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="F26" t="n">
         <v>363</v>
       </c>
       <c r="G26" t="n">
-        <v>340</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>GPlag_q</t>
+          <t>MomResiduals6m</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1816</v>
       </c>
       <c r="C27" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D27" t="n">
-        <v>1140</v>
+        <v>1387</v>
       </c>
       <c r="E27" t="n">
-        <v>676</v>
+        <v>429</v>
       </c>
       <c r="F27" t="n">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="G27" t="n">
-        <v>313</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -32081,19 +32081,19 @@
         <v>1816</v>
       </c>
       <c r="C33" t="n">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D33" t="n">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E33" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F33" t="n">
         <v>363</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -32149,51 +32149,51 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>OffSeason_0205</t>
+          <t>cfp_q</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1816</v>
       </c>
       <c r="C36" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D36" t="n">
-        <v>1751</v>
+        <v>1445</v>
       </c>
       <c r="E36" t="n">
-        <v>65</v>
+        <v>371</v>
       </c>
       <c r="F36" t="n">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="G36" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>cfp_q</t>
+          <t>OffSeason_0205</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1816</v>
       </c>
       <c r="C37" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D37" t="n">
-        <v>1446</v>
+        <v>1751</v>
       </c>
       <c r="E37" t="n">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="F37" t="n">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -33072,7 +33072,7 @@
         <v>106</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>95</v>
@@ -33081,10 +33081,10 @@
         <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -33102,19 +33102,19 @@
         <v>830</v>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E28" t="n">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F28" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G28" t="n">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H28" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -33132,19 +33132,19 @@
         <v>318</v>
       </c>
       <c r="D29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E29" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F29" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G29" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H29" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -33192,19 +33192,19 @@
         <v>551</v>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F31" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G31" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -33252,16 +33252,16 @@
         <v>106</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
@@ -33282,19 +33282,19 @@
         <v>830</v>
       </c>
       <c r="D34" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E34" t="n">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F34" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G34" t="n">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="H34" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35">
@@ -33312,19 +33312,19 @@
         <v>318</v>
       </c>
       <c r="D35" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E35" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F35" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G35" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H35" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -33372,19 +33372,19 @@
         <v>551</v>
       </c>
       <c r="D37" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E37" t="n">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F37" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G37" t="n">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H37" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
@@ -35985,16 +35985,16 @@
         <v>107</v>
       </c>
       <c r="E124" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F124" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G124" t="n">
         <v>180</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -36072,7 +36072,7 @@
         <v>551</v>
       </c>
       <c r="D127" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E127" t="n">
         <v>451</v>
@@ -36522,19 +36522,19 @@
         <v>830</v>
       </c>
       <c r="D142" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E142" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F142" t="n">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G142" t="n">
         <v>180</v>
       </c>
       <c r="H142" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143">
@@ -36555,16 +36555,16 @@
         <v>9</v>
       </c>
       <c r="E143" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F143" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G143" t="n">
         <v>65</v>
       </c>
       <c r="H143" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="144">
@@ -36615,16 +36615,16 @@
         <v>22</v>
       </c>
       <c r="E145" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F145" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G145" t="n">
         <v>100</v>
       </c>
       <c r="H145" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146">
@@ -36732,7 +36732,7 @@
         <v>318</v>
       </c>
       <c r="D149" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E149" t="n">
         <v>253</v>
@@ -36882,19 +36882,19 @@
         <v>830</v>
       </c>
       <c r="D154" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E154" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F154" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G154" t="n">
         <v>180</v>
       </c>
       <c r="H154" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -36972,7 +36972,7 @@
         <v>551</v>
       </c>
       <c r="D157" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E157" t="n">
         <v>449</v>
@@ -37062,7 +37062,7 @@
         <v>830</v>
       </c>
       <c r="D160" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E160" t="n">
         <v>469</v>
@@ -37152,7 +37152,7 @@
         <v>551</v>
       </c>
       <c r="D163" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E163" t="n">
         <v>335</v>
@@ -37242,7 +37242,7 @@
         <v>830</v>
       </c>
       <c r="D166" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E166" t="n">
         <v>457</v>
@@ -37332,7 +37332,7 @@
         <v>551</v>
       </c>
       <c r="D169" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E169" t="n">
         <v>330</v>
@@ -37602,7 +37602,7 @@
         <v>830</v>
       </c>
       <c r="D178" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E178" t="n">
         <v>456</v>
@@ -37782,19 +37782,19 @@
         <v>830</v>
       </c>
       <c r="D184" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E184" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F184" t="n">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="G184" t="n">
         <v>180</v>
       </c>
       <c r="H184" t="n">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="185">
@@ -37815,16 +37815,16 @@
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F185" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G185" t="n">
         <v>65</v>
       </c>
       <c r="H185" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186">
@@ -37872,19 +37872,19 @@
         <v>551</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G187" t="n">
         <v>100</v>
       </c>
       <c r="H187" t="n">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188">
@@ -37962,19 +37962,19 @@
         <v>830</v>
       </c>
       <c r="D190" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F190" t="n">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="G190" t="n">
         <v>180</v>
       </c>
       <c r="H190" t="n">
-        <v>632</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191">
@@ -37995,16 +37995,16 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F191" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G191" t="n">
         <v>65</v>
       </c>
       <c r="H191" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192">
@@ -38052,19 +38052,19 @@
         <v>551</v>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E193" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F193" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G193" t="n">
         <v>100</v>
       </c>
       <c r="H193" t="n">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="194">
@@ -38121,10 +38121,10 @@
         <v>106</v>
       </c>
       <c r="G195" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H195" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196">
@@ -38145,16 +38145,16 @@
         <v>3</v>
       </c>
       <c r="E196" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F196" t="n">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="G196" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="H196" t="n">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="197">
@@ -38172,19 +38172,19 @@
         <v>318</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F197" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G197" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H197" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198">
@@ -38235,16 +38235,16 @@
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G199" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H199" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200">
@@ -38325,16 +38325,16 @@
         <v>17</v>
       </c>
       <c r="E202" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F202" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G202" t="n">
         <v>664</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203">
@@ -38412,7 +38412,7 @@
         <v>551</v>
       </c>
       <c r="D205" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E205" t="n">
         <v>121</v>
@@ -38505,16 +38505,16 @@
         <v>20</v>
       </c>
       <c r="E208" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F208" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G208" t="n">
         <v>664</v>
       </c>
       <c r="H208" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209">
@@ -40702,10 +40702,10 @@
         <v>16</v>
       </c>
       <c r="G51" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -40723,7 +40723,7 @@
         <v>194</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
         <v>151</v>
@@ -40732,10 +40732,10 @@
         <v>43</v>
       </c>
       <c r="G52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -40753,7 +40753,7 @@
         <v>49</v>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E53" t="n">
         <v>35</v>
@@ -40783,7 +40783,7 @@
         <v>76</v>
       </c>
       <c r="D54" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
         <v>69</v>
@@ -40792,10 +40792,10 @@
         <v>7</v>
       </c>
       <c r="G54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -40813,19 +40813,19 @@
         <v>326</v>
       </c>
       <c r="D55" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E55" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F55" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H55" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -40843,19 +40843,19 @@
         <v>561</v>
       </c>
       <c r="D56" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E56" t="n">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F56" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G56" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H56" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -40873,19 +40873,19 @@
         <v>202</v>
       </c>
       <c r="D57" t="n">
+        <v>13</v>
+      </c>
+      <c r="E57" t="n">
+        <v>159</v>
+      </c>
+      <c r="F57" t="n">
+        <v>43</v>
+      </c>
+      <c r="G57" t="n">
+        <v>27</v>
+      </c>
+      <c r="H57" t="n">
         <v>16</v>
-      </c>
-      <c r="E57" t="n">
-        <v>158</v>
-      </c>
-      <c r="F57" t="n">
-        <v>44</v>
-      </c>
-      <c r="G57" t="n">
-        <v>36</v>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -40903,7 +40903,7 @@
         <v>207</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="n">
         <v>161</v>
@@ -40912,10 +40912,10 @@
         <v>46</v>
       </c>
       <c r="G58" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -40933,19 +40933,19 @@
         <v>48</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -40963,7 +40963,7 @@
         <v>64</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60" t="n">
         <v>44</v>
@@ -40972,10 +40972,10 @@
         <v>20</v>
       </c>
       <c r="G60" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -41002,10 +41002,10 @@
         <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -41053,19 +41053,19 @@
         <v>71</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -41083,7 +41083,7 @@
         <v>194</v>
       </c>
       <c r="D64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E64" t="n">
         <v>150</v>
@@ -41092,10 +41092,10 @@
         <v>44</v>
       </c>
       <c r="G64" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H64" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -41113,7 +41113,7 @@
         <v>49</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
         <v>33</v>
@@ -41143,16 +41143,16 @@
         <v>76</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -41173,19 +41173,19 @@
         <v>326</v>
       </c>
       <c r="D67" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E67" t="n">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F67" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G67" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
@@ -41203,19 +41203,19 @@
         <v>561</v>
       </c>
       <c r="D68" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F68" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G68" t="n">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H68" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69">
@@ -41233,19 +41233,19 @@
         <v>202</v>
       </c>
       <c r="D69" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E69" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F69" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G69" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H69" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
@@ -41263,19 +41263,19 @@
         <v>207</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E70" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F70" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G70" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H70" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -41293,7 +41293,7 @@
         <v>48</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
         <v>40</v>
@@ -41323,7 +41323,7 @@
         <v>64</v>
       </c>
       <c r="D72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
         <v>44</v>
@@ -41332,10 +41332,10 @@
         <v>20</v>
       </c>
       <c r="G72" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -41353,7 +41353,7 @@
         <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>13</v>
@@ -41362,10 +41362,10 @@
         <v>3</v>
       </c>
       <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
         <v>2</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -46603,7 +46603,7 @@
         <v>561</v>
       </c>
       <c r="D248" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E248" t="n">
         <v>546</v>
@@ -46666,16 +46666,16 @@
         <v>23</v>
       </c>
       <c r="E250" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F250" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -47566,16 +47566,16 @@
         <v>8</v>
       </c>
       <c r="E280" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F280" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
       </c>
       <c r="H280" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281">
@@ -47683,7 +47683,7 @@
         <v>561</v>
       </c>
       <c r="D284" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E284" t="n">
         <v>60</v>
@@ -47716,16 +47716,16 @@
         <v>18</v>
       </c>
       <c r="E285" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F285" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G285" t="n">
         <v>4</v>
       </c>
       <c r="H285" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="286">
@@ -47743,19 +47743,19 @@
         <v>207</v>
       </c>
       <c r="D286" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E286" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F286" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G286" t="n">
         <v>3</v>
       </c>
       <c r="H286" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="287">
@@ -47923,7 +47923,7 @@
         <v>194</v>
       </c>
       <c r="D292" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E292" t="n">
         <v>57</v>
@@ -48283,7 +48283,7 @@
         <v>194</v>
       </c>
       <c r="D304" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E304" t="n">
         <v>191</v>
@@ -48433,7 +48433,7 @@
         <v>202</v>
       </c>
       <c r="D309" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E309" t="n">
         <v>197</v>
@@ -48466,16 +48466,16 @@
         <v>39</v>
       </c>
       <c r="E310" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F310" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -48553,7 +48553,7 @@
         <v>16</v>
       </c>
       <c r="D313" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E313" t="n">
         <v>16</v>
@@ -48646,16 +48646,16 @@
         <v>37</v>
       </c>
       <c r="E316" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F316" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G316" t="n">
         <v>3</v>
       </c>
       <c r="H316" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317">
@@ -48793,7 +48793,7 @@
         <v>202</v>
       </c>
       <c r="D321" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E321" t="n">
         <v>194</v>
@@ -48823,19 +48823,19 @@
         <v>207</v>
       </c>
       <c r="D322" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E322" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F322" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
       </c>
       <c r="H322" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="323">
@@ -49006,16 +49006,16 @@
         <v>8</v>
       </c>
       <c r="E328" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F328" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
       </c>
       <c r="H328" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329">
@@ -49186,16 +49186,16 @@
         <v>29</v>
       </c>
       <c r="E334" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F334" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G334" t="n">
         <v>3</v>
       </c>
       <c r="H334" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="335">
@@ -49366,16 +49366,16 @@
         <v>8</v>
       </c>
       <c r="E340" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F340" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
       </c>
       <c r="H340" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341">
@@ -49546,16 +49546,16 @@
         <v>27</v>
       </c>
       <c r="E346" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F346" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G346" t="n">
         <v>3</v>
       </c>
       <c r="H346" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347">
@@ -49723,19 +49723,19 @@
         <v>194</v>
       </c>
       <c r="D352" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E352" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F352" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G352" t="n">
         <v>3</v>
       </c>
       <c r="H352" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353">
@@ -49873,7 +49873,7 @@
         <v>202</v>
       </c>
       <c r="D357" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E357" t="n">
         <v>187</v>
@@ -49906,16 +49906,16 @@
         <v>37</v>
       </c>
       <c r="E358" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F358" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
       </c>
       <c r="H358" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="359">
@@ -50056,16 +50056,16 @@
         <v>0</v>
       </c>
       <c r="E363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F363" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
       </c>
       <c r="H363" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="364">
@@ -50083,19 +50083,19 @@
         <v>194</v>
       </c>
       <c r="D364" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E364" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F364" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G364" t="n">
         <v>3</v>
       </c>
       <c r="H364" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="365">
@@ -50116,16 +50116,16 @@
         <v>2</v>
       </c>
       <c r="E365" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F365" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>
       </c>
       <c r="H365" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="366">
@@ -50206,16 +50206,16 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F368" t="n">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G368" t="n">
         <v>14</v>
       </c>
       <c r="H368" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="369">
@@ -50236,16 +50236,16 @@
         <v>2</v>
       </c>
       <c r="E369" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F369" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G369" t="n">
         <v>4</v>
       </c>
       <c r="H369" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="370">
@@ -50263,19 +50263,19 @@
         <v>207</v>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E370" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F370" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G370" t="n">
         <v>3</v>
       </c>
       <c r="H370" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="371">
@@ -50293,7 +50293,7 @@
         <v>48</v>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E371" t="n">
         <v>2</v>
@@ -50416,16 +50416,16 @@
         <v>0</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F375" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G375" t="n">
         <v>3</v>
       </c>
       <c r="H375" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="376">
@@ -50446,16 +50446,16 @@
         <v>2</v>
       </c>
       <c r="E376" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F376" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G376" t="n">
         <v>3</v>
       </c>
       <c r="H376" t="n">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="377">
@@ -50476,16 +50476,16 @@
         <v>0</v>
       </c>
       <c r="E377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F377" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
       </c>
       <c r="H377" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="378">
@@ -50566,16 +50566,16 @@
         <v>1</v>
       </c>
       <c r="E380" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F380" t="n">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="G380" t="n">
         <v>14</v>
       </c>
       <c r="H380" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="381">
@@ -50596,16 +50596,16 @@
         <v>2</v>
       </c>
       <c r="E381" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F381" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G381" t="n">
         <v>4</v>
       </c>
       <c r="H381" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="382">
@@ -50623,19 +50623,19 @@
         <v>207</v>
       </c>
       <c r="D382" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E382" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F382" t="n">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
       </c>
       <c r="H382" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="383">
@@ -50776,16 +50776,16 @@
         <v>0</v>
       </c>
       <c r="E387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F387" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G387" t="n">
         <v>12</v>
       </c>
       <c r="H387" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="388">
@@ -50806,16 +50806,16 @@
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F388" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G388" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H388" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="389">
@@ -50842,10 +50842,10 @@
         <v>48</v>
       </c>
       <c r="G389" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H389" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="390">
@@ -50926,16 +50926,16 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F392" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G392" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H392" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="393">
@@ -50953,19 +50953,19 @@
         <v>202</v>
       </c>
       <c r="D393" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E393" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F393" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G393" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H393" t="n">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="394">
@@ -50986,16 +50986,16 @@
         <v>2</v>
       </c>
       <c r="E394" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F394" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G394" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H394" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="395">
@@ -51163,7 +51163,7 @@
         <v>194</v>
       </c>
       <c r="D400" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E400" t="n">
         <v>77</v>
@@ -51346,16 +51346,16 @@
         <v>34</v>
       </c>
       <c r="E406" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F406" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G406" t="n">
         <v>89</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -51706,16 +51706,16 @@
         <v>23</v>
       </c>
       <c r="E418" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F418" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G418" t="n">
         <v>89</v>
       </c>
       <c r="H418" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419">
